--- a/Project Management/eCL OY4/CCO OY4_eCoaching Log TailorPlan Worksheet.xlsx
+++ b/Project Management/eCL OY4/CCO OY4_eCoaching Log TailorPlan Worksheet.xlsx
@@ -25,12 +25,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Key!$3:$3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="521">
   <si>
     <t>Purpose of this worksheet</t>
   </si>
@@ -1929,17 +1928,33 @@
     <t>No suppliers</t>
   </si>
   <si>
-    <t xml:space="preserve">eCL does not have external customer security requirments </t>
+    <t>Have a SAM wavier</t>
+  </si>
+  <si>
+    <t>Request to waive SAM plan because there are no suppliers</t>
+  </si>
+  <si>
+    <t>The TFS priority field is used to distinguish priority.  Effort is measured in hours</t>
+  </si>
+  <si>
+    <t>Waived in the project plan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3353,54 +3368,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="250">
+  <cellStyleXfs count="451">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3414,20 +3456,8 @@
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3441,8 +3471,6 @@
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3456,6 +3484,23 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="58" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3469,23 +3514,7 @@
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="58" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3499,360 +3528,547 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="369">
+  <cellXfs count="372">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3861,293 +4077,266 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="43" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="43" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="45" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="45" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="46" fillId="41" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="41" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="60" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="41" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="41" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="60" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="41" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="41" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="60" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="41" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="41" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="60" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="41" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="41" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="60" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="41" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="41" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="60" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="42" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="43" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="43" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="43" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="43" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="43" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="43" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="43" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="43" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="43" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="43" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="43" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="43" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="43" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="42" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -4158,362 +4347,440 @@
     <xf numFmtId="0" fontId="47" fillId="42" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="43" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="43" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="43" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="42" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="42" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="42" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="65" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="65" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="67" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="67" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="82" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="82" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="82" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="82" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="82"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="82"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="82"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="82"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="82"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="82"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="82" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="82" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="82" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4528,92 +4795,32 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="43" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="60" xfId="43" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="41" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -4621,203 +4828,401 @@
     <xf numFmtId="0" fontId="33" fillId="41" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="82" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="250">
+  <cellStyles count="451">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="48"/>
     <cellStyle name="20% - Accent1 2 2" xfId="110"/>
     <cellStyle name="20% - Accent1 2 2 2" xfId="223"/>
+    <cellStyle name="20% - Accent1 2 2 2 2" xfId="425"/>
+    <cellStyle name="20% - Accent1 2 2 3" xfId="317"/>
     <cellStyle name="20% - Accent1 2 3" xfId="169"/>
+    <cellStyle name="20% - Accent1 2 3 2" xfId="372"/>
+    <cellStyle name="20% - Accent1 2 4" xfId="264"/>
     <cellStyle name="20% - Accent1 3" xfId="69"/>
     <cellStyle name="20% - Accent1 3 2" xfId="184"/>
+    <cellStyle name="20% - Accent1 3 2 2" xfId="386"/>
+    <cellStyle name="20% - Accent1 3 3" xfId="278"/>
     <cellStyle name="20% - Accent1 4" xfId="84"/>
     <cellStyle name="20% - Accent1 4 2" xfId="197"/>
+    <cellStyle name="20% - Accent1 4 2 2" xfId="399"/>
+    <cellStyle name="20% - Accent1 4 3" xfId="291"/>
     <cellStyle name="20% - Accent1 5" xfId="97"/>
     <cellStyle name="20% - Accent1 5 2" xfId="210"/>
+    <cellStyle name="20% - Accent1 5 2 2" xfId="412"/>
+    <cellStyle name="20% - Accent1 5 3" xfId="304"/>
     <cellStyle name="20% - Accent1 6" xfId="127"/>
     <cellStyle name="20% - Accent1 6 2" xfId="237"/>
+    <cellStyle name="20% - Accent1 6 2 2" xfId="439"/>
+    <cellStyle name="20% - Accent1 6 3" xfId="332"/>
     <cellStyle name="20% - Accent1 7" xfId="155"/>
+    <cellStyle name="20% - Accent1 7 2" xfId="359"/>
     <cellStyle name="20% - Accent1 8" xfId="141"/>
+    <cellStyle name="20% - Accent1 8 2" xfId="346"/>
+    <cellStyle name="20% - Accent1 9" xfId="251"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent2 2" xfId="50"/>
     <cellStyle name="20% - Accent2 2 2" xfId="112"/>
     <cellStyle name="20% - Accent2 2 2 2" xfId="225"/>
+    <cellStyle name="20% - Accent2 2 2 2 2" xfId="427"/>
+    <cellStyle name="20% - Accent2 2 2 3" xfId="319"/>
     <cellStyle name="20% - Accent2 2 3" xfId="171"/>
+    <cellStyle name="20% - Accent2 2 3 2" xfId="374"/>
+    <cellStyle name="20% - Accent2 2 4" xfId="266"/>
     <cellStyle name="20% - Accent2 3" xfId="71"/>
     <cellStyle name="20% - Accent2 3 2" xfId="186"/>
+    <cellStyle name="20% - Accent2 3 2 2" xfId="388"/>
+    <cellStyle name="20% - Accent2 3 3" xfId="280"/>
     <cellStyle name="20% - Accent2 4" xfId="86"/>
     <cellStyle name="20% - Accent2 4 2" xfId="199"/>
+    <cellStyle name="20% - Accent2 4 2 2" xfId="401"/>
+    <cellStyle name="20% - Accent2 4 3" xfId="293"/>
     <cellStyle name="20% - Accent2 5" xfId="99"/>
     <cellStyle name="20% - Accent2 5 2" xfId="212"/>
+    <cellStyle name="20% - Accent2 5 2 2" xfId="414"/>
+    <cellStyle name="20% - Accent2 5 3" xfId="306"/>
     <cellStyle name="20% - Accent2 6" xfId="129"/>
     <cellStyle name="20% - Accent2 6 2" xfId="239"/>
+    <cellStyle name="20% - Accent2 6 2 2" xfId="441"/>
+    <cellStyle name="20% - Accent2 6 3" xfId="334"/>
     <cellStyle name="20% - Accent2 7" xfId="157"/>
+    <cellStyle name="20% - Accent2 7 2" xfId="361"/>
     <cellStyle name="20% - Accent2 8" xfId="143"/>
+    <cellStyle name="20% - Accent2 8 2" xfId="348"/>
+    <cellStyle name="20% - Accent2 9" xfId="253"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Accent3 2" xfId="52"/>
     <cellStyle name="20% - Accent3 2 2" xfId="114"/>
     <cellStyle name="20% - Accent3 2 2 2" xfId="227"/>
+    <cellStyle name="20% - Accent3 2 2 2 2" xfId="429"/>
+    <cellStyle name="20% - Accent3 2 2 3" xfId="321"/>
     <cellStyle name="20% - Accent3 2 3" xfId="173"/>
+    <cellStyle name="20% - Accent3 2 3 2" xfId="376"/>
+    <cellStyle name="20% - Accent3 2 4" xfId="268"/>
     <cellStyle name="20% - Accent3 3" xfId="73"/>
     <cellStyle name="20% - Accent3 3 2" xfId="188"/>
+    <cellStyle name="20% - Accent3 3 2 2" xfId="390"/>
+    <cellStyle name="20% - Accent3 3 3" xfId="282"/>
     <cellStyle name="20% - Accent3 4" xfId="88"/>
     <cellStyle name="20% - Accent3 4 2" xfId="201"/>
+    <cellStyle name="20% - Accent3 4 2 2" xfId="403"/>
+    <cellStyle name="20% - Accent3 4 3" xfId="295"/>
     <cellStyle name="20% - Accent3 5" xfId="101"/>
     <cellStyle name="20% - Accent3 5 2" xfId="214"/>
+    <cellStyle name="20% - Accent3 5 2 2" xfId="416"/>
+    <cellStyle name="20% - Accent3 5 3" xfId="308"/>
     <cellStyle name="20% - Accent3 6" xfId="131"/>
     <cellStyle name="20% - Accent3 6 2" xfId="241"/>
+    <cellStyle name="20% - Accent3 6 2 2" xfId="443"/>
+    <cellStyle name="20% - Accent3 6 3" xfId="336"/>
     <cellStyle name="20% - Accent3 7" xfId="159"/>
+    <cellStyle name="20% - Accent3 7 2" xfId="363"/>
     <cellStyle name="20% - Accent3 8" xfId="145"/>
+    <cellStyle name="20% - Accent3 8 2" xfId="350"/>
+    <cellStyle name="20% - Accent3 9" xfId="255"/>
     <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Accent4 2" xfId="54"/>
     <cellStyle name="20% - Accent4 2 2" xfId="116"/>
     <cellStyle name="20% - Accent4 2 2 2" xfId="229"/>
+    <cellStyle name="20% - Accent4 2 2 2 2" xfId="431"/>
+    <cellStyle name="20% - Accent4 2 2 3" xfId="323"/>
     <cellStyle name="20% - Accent4 2 3" xfId="175"/>
+    <cellStyle name="20% - Accent4 2 3 2" xfId="378"/>
+    <cellStyle name="20% - Accent4 2 4" xfId="270"/>
     <cellStyle name="20% - Accent4 3" xfId="75"/>
     <cellStyle name="20% - Accent4 3 2" xfId="190"/>
+    <cellStyle name="20% - Accent4 3 2 2" xfId="392"/>
+    <cellStyle name="20% - Accent4 3 3" xfId="284"/>
     <cellStyle name="20% - Accent4 4" xfId="90"/>
     <cellStyle name="20% - Accent4 4 2" xfId="203"/>
+    <cellStyle name="20% - Accent4 4 2 2" xfId="405"/>
+    <cellStyle name="20% - Accent4 4 3" xfId="297"/>
     <cellStyle name="20% - Accent4 5" xfId="103"/>
     <cellStyle name="20% - Accent4 5 2" xfId="216"/>
+    <cellStyle name="20% - Accent4 5 2 2" xfId="418"/>
+    <cellStyle name="20% - Accent4 5 3" xfId="310"/>
     <cellStyle name="20% - Accent4 6" xfId="133"/>
     <cellStyle name="20% - Accent4 6 2" xfId="243"/>
+    <cellStyle name="20% - Accent4 6 2 2" xfId="445"/>
+    <cellStyle name="20% - Accent4 6 3" xfId="338"/>
     <cellStyle name="20% - Accent4 7" xfId="161"/>
+    <cellStyle name="20% - Accent4 7 2" xfId="365"/>
     <cellStyle name="20% - Accent4 8" xfId="147"/>
+    <cellStyle name="20% - Accent4 8 2" xfId="352"/>
+    <cellStyle name="20% - Accent4 9" xfId="257"/>
     <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Accent5 2" xfId="56"/>
     <cellStyle name="20% - Accent5 2 2" xfId="118"/>
     <cellStyle name="20% - Accent5 2 2 2" xfId="231"/>
+    <cellStyle name="20% - Accent5 2 2 2 2" xfId="433"/>
+    <cellStyle name="20% - Accent5 2 2 3" xfId="325"/>
     <cellStyle name="20% - Accent5 2 3" xfId="177"/>
+    <cellStyle name="20% - Accent5 2 3 2" xfId="380"/>
+    <cellStyle name="20% - Accent5 2 4" xfId="272"/>
     <cellStyle name="20% - Accent5 3" xfId="77"/>
     <cellStyle name="20% - Accent5 3 2" xfId="192"/>
+    <cellStyle name="20% - Accent5 3 2 2" xfId="394"/>
+    <cellStyle name="20% - Accent5 3 3" xfId="286"/>
     <cellStyle name="20% - Accent5 4" xfId="92"/>
     <cellStyle name="20% - Accent5 4 2" xfId="205"/>
+    <cellStyle name="20% - Accent5 4 2 2" xfId="407"/>
+    <cellStyle name="20% - Accent5 4 3" xfId="299"/>
     <cellStyle name="20% - Accent5 5" xfId="105"/>
     <cellStyle name="20% - Accent5 5 2" xfId="218"/>
+    <cellStyle name="20% - Accent5 5 2 2" xfId="420"/>
+    <cellStyle name="20% - Accent5 5 3" xfId="312"/>
     <cellStyle name="20% - Accent5 6" xfId="135"/>
     <cellStyle name="20% - Accent5 6 2" xfId="245"/>
+    <cellStyle name="20% - Accent5 6 2 2" xfId="447"/>
+    <cellStyle name="20% - Accent5 6 3" xfId="340"/>
     <cellStyle name="20% - Accent5 7" xfId="163"/>
+    <cellStyle name="20% - Accent5 7 2" xfId="367"/>
     <cellStyle name="20% - Accent5 8" xfId="149"/>
+    <cellStyle name="20% - Accent5 8 2" xfId="354"/>
+    <cellStyle name="20% - Accent5 9" xfId="259"/>
     <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - Accent6 2" xfId="58"/>
     <cellStyle name="20% - Accent6 2 2" xfId="120"/>
     <cellStyle name="20% - Accent6 2 2 2" xfId="233"/>
+    <cellStyle name="20% - Accent6 2 2 2 2" xfId="435"/>
+    <cellStyle name="20% - Accent6 2 2 3" xfId="327"/>
     <cellStyle name="20% - Accent6 2 3" xfId="179"/>
+    <cellStyle name="20% - Accent6 2 3 2" xfId="382"/>
+    <cellStyle name="20% - Accent6 2 4" xfId="274"/>
     <cellStyle name="20% - Accent6 3" xfId="79"/>
     <cellStyle name="20% - Accent6 3 2" xfId="194"/>
+    <cellStyle name="20% - Accent6 3 2 2" xfId="396"/>
+    <cellStyle name="20% - Accent6 3 3" xfId="288"/>
     <cellStyle name="20% - Accent6 4" xfId="94"/>
     <cellStyle name="20% - Accent6 4 2" xfId="207"/>
+    <cellStyle name="20% - Accent6 4 2 2" xfId="409"/>
+    <cellStyle name="20% - Accent6 4 3" xfId="301"/>
     <cellStyle name="20% - Accent6 5" xfId="107"/>
     <cellStyle name="20% - Accent6 5 2" xfId="220"/>
+    <cellStyle name="20% - Accent6 5 2 2" xfId="422"/>
+    <cellStyle name="20% - Accent6 5 3" xfId="314"/>
     <cellStyle name="20% - Accent6 6" xfId="137"/>
     <cellStyle name="20% - Accent6 6 2" xfId="247"/>
+    <cellStyle name="20% - Accent6 6 2 2" xfId="449"/>
+    <cellStyle name="20% - Accent6 6 3" xfId="342"/>
     <cellStyle name="20% - Accent6 7" xfId="165"/>
+    <cellStyle name="20% - Accent6 7 2" xfId="369"/>
     <cellStyle name="20% - Accent6 8" xfId="151"/>
+    <cellStyle name="20% - Accent6 8 2" xfId="356"/>
+    <cellStyle name="20% - Accent6 9" xfId="261"/>
     <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - Accent1 2" xfId="49"/>
     <cellStyle name="40% - Accent1 2 2" xfId="111"/>
     <cellStyle name="40% - Accent1 2 2 2" xfId="224"/>
+    <cellStyle name="40% - Accent1 2 2 2 2" xfId="426"/>
+    <cellStyle name="40% - Accent1 2 2 3" xfId="318"/>
     <cellStyle name="40% - Accent1 2 3" xfId="170"/>
+    <cellStyle name="40% - Accent1 2 3 2" xfId="373"/>
+    <cellStyle name="40% - Accent1 2 4" xfId="265"/>
     <cellStyle name="40% - Accent1 3" xfId="70"/>
     <cellStyle name="40% - Accent1 3 2" xfId="185"/>
+    <cellStyle name="40% - Accent1 3 2 2" xfId="387"/>
+    <cellStyle name="40% - Accent1 3 3" xfId="279"/>
     <cellStyle name="40% - Accent1 4" xfId="85"/>
     <cellStyle name="40% - Accent1 4 2" xfId="198"/>
+    <cellStyle name="40% - Accent1 4 2 2" xfId="400"/>
+    <cellStyle name="40% - Accent1 4 3" xfId="292"/>
     <cellStyle name="40% - Accent1 5" xfId="98"/>
     <cellStyle name="40% - Accent1 5 2" xfId="211"/>
+    <cellStyle name="40% - Accent1 5 2 2" xfId="413"/>
+    <cellStyle name="40% - Accent1 5 3" xfId="305"/>
     <cellStyle name="40% - Accent1 6" xfId="128"/>
     <cellStyle name="40% - Accent1 6 2" xfId="238"/>
+    <cellStyle name="40% - Accent1 6 2 2" xfId="440"/>
+    <cellStyle name="40% - Accent1 6 3" xfId="333"/>
     <cellStyle name="40% - Accent1 7" xfId="156"/>
+    <cellStyle name="40% - Accent1 7 2" xfId="360"/>
     <cellStyle name="40% - Accent1 8" xfId="142"/>
+    <cellStyle name="40% - Accent1 8 2" xfId="347"/>
+    <cellStyle name="40% - Accent1 9" xfId="252"/>
     <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Accent2 2" xfId="51"/>
     <cellStyle name="40% - Accent2 2 2" xfId="113"/>
     <cellStyle name="40% - Accent2 2 2 2" xfId="226"/>
+    <cellStyle name="40% - Accent2 2 2 2 2" xfId="428"/>
+    <cellStyle name="40% - Accent2 2 2 3" xfId="320"/>
     <cellStyle name="40% - Accent2 2 3" xfId="172"/>
+    <cellStyle name="40% - Accent2 2 3 2" xfId="375"/>
+    <cellStyle name="40% - Accent2 2 4" xfId="267"/>
     <cellStyle name="40% - Accent2 3" xfId="72"/>
     <cellStyle name="40% - Accent2 3 2" xfId="187"/>
+    <cellStyle name="40% - Accent2 3 2 2" xfId="389"/>
+    <cellStyle name="40% - Accent2 3 3" xfId="281"/>
     <cellStyle name="40% - Accent2 4" xfId="87"/>
     <cellStyle name="40% - Accent2 4 2" xfId="200"/>
+    <cellStyle name="40% - Accent2 4 2 2" xfId="402"/>
+    <cellStyle name="40% - Accent2 4 3" xfId="294"/>
     <cellStyle name="40% - Accent2 5" xfId="100"/>
     <cellStyle name="40% - Accent2 5 2" xfId="213"/>
+    <cellStyle name="40% - Accent2 5 2 2" xfId="415"/>
+    <cellStyle name="40% - Accent2 5 3" xfId="307"/>
     <cellStyle name="40% - Accent2 6" xfId="130"/>
     <cellStyle name="40% - Accent2 6 2" xfId="240"/>
+    <cellStyle name="40% - Accent2 6 2 2" xfId="442"/>
+    <cellStyle name="40% - Accent2 6 3" xfId="335"/>
     <cellStyle name="40% - Accent2 7" xfId="158"/>
+    <cellStyle name="40% - Accent2 7 2" xfId="362"/>
     <cellStyle name="40% - Accent2 8" xfId="144"/>
+    <cellStyle name="40% - Accent2 8 2" xfId="349"/>
+    <cellStyle name="40% - Accent2 9" xfId="254"/>
     <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Accent3 2" xfId="53"/>
     <cellStyle name="40% - Accent3 2 2" xfId="115"/>
     <cellStyle name="40% - Accent3 2 2 2" xfId="228"/>
+    <cellStyle name="40% - Accent3 2 2 2 2" xfId="430"/>
+    <cellStyle name="40% - Accent3 2 2 3" xfId="322"/>
     <cellStyle name="40% - Accent3 2 3" xfId="174"/>
+    <cellStyle name="40% - Accent3 2 3 2" xfId="377"/>
+    <cellStyle name="40% - Accent3 2 4" xfId="269"/>
     <cellStyle name="40% - Accent3 3" xfId="74"/>
     <cellStyle name="40% - Accent3 3 2" xfId="189"/>
+    <cellStyle name="40% - Accent3 3 2 2" xfId="391"/>
+    <cellStyle name="40% - Accent3 3 3" xfId="283"/>
     <cellStyle name="40% - Accent3 4" xfId="89"/>
     <cellStyle name="40% - Accent3 4 2" xfId="202"/>
+    <cellStyle name="40% - Accent3 4 2 2" xfId="404"/>
+    <cellStyle name="40% - Accent3 4 3" xfId="296"/>
     <cellStyle name="40% - Accent3 5" xfId="102"/>
     <cellStyle name="40% - Accent3 5 2" xfId="215"/>
+    <cellStyle name="40% - Accent3 5 2 2" xfId="417"/>
+    <cellStyle name="40% - Accent3 5 3" xfId="309"/>
     <cellStyle name="40% - Accent3 6" xfId="132"/>
     <cellStyle name="40% - Accent3 6 2" xfId="242"/>
+    <cellStyle name="40% - Accent3 6 2 2" xfId="444"/>
+    <cellStyle name="40% - Accent3 6 3" xfId="337"/>
     <cellStyle name="40% - Accent3 7" xfId="160"/>
+    <cellStyle name="40% - Accent3 7 2" xfId="364"/>
     <cellStyle name="40% - Accent3 8" xfId="146"/>
+    <cellStyle name="40% - Accent3 8 2" xfId="351"/>
+    <cellStyle name="40% - Accent3 9" xfId="256"/>
     <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent4 2" xfId="55"/>
     <cellStyle name="40% - Accent4 2 2" xfId="117"/>
     <cellStyle name="40% - Accent4 2 2 2" xfId="230"/>
+    <cellStyle name="40% - Accent4 2 2 2 2" xfId="432"/>
+    <cellStyle name="40% - Accent4 2 2 3" xfId="324"/>
     <cellStyle name="40% - Accent4 2 3" xfId="176"/>
+    <cellStyle name="40% - Accent4 2 3 2" xfId="379"/>
+    <cellStyle name="40% - Accent4 2 4" xfId="271"/>
     <cellStyle name="40% - Accent4 3" xfId="76"/>
     <cellStyle name="40% - Accent4 3 2" xfId="191"/>
+    <cellStyle name="40% - Accent4 3 2 2" xfId="393"/>
+    <cellStyle name="40% - Accent4 3 3" xfId="285"/>
     <cellStyle name="40% - Accent4 4" xfId="91"/>
     <cellStyle name="40% - Accent4 4 2" xfId="204"/>
+    <cellStyle name="40% - Accent4 4 2 2" xfId="406"/>
+    <cellStyle name="40% - Accent4 4 3" xfId="298"/>
     <cellStyle name="40% - Accent4 5" xfId="104"/>
     <cellStyle name="40% - Accent4 5 2" xfId="217"/>
+    <cellStyle name="40% - Accent4 5 2 2" xfId="419"/>
+    <cellStyle name="40% - Accent4 5 3" xfId="311"/>
     <cellStyle name="40% - Accent4 6" xfId="134"/>
     <cellStyle name="40% - Accent4 6 2" xfId="244"/>
+    <cellStyle name="40% - Accent4 6 2 2" xfId="446"/>
+    <cellStyle name="40% - Accent4 6 3" xfId="339"/>
     <cellStyle name="40% - Accent4 7" xfId="162"/>
+    <cellStyle name="40% - Accent4 7 2" xfId="366"/>
     <cellStyle name="40% - Accent4 8" xfId="148"/>
+    <cellStyle name="40% - Accent4 8 2" xfId="353"/>
+    <cellStyle name="40% - Accent4 9" xfId="258"/>
     <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent5 2" xfId="57"/>
     <cellStyle name="40% - Accent5 2 2" xfId="119"/>
     <cellStyle name="40% - Accent5 2 2 2" xfId="232"/>
+    <cellStyle name="40% - Accent5 2 2 2 2" xfId="434"/>
+    <cellStyle name="40% - Accent5 2 2 3" xfId="326"/>
     <cellStyle name="40% - Accent5 2 3" xfId="178"/>
+    <cellStyle name="40% - Accent5 2 3 2" xfId="381"/>
+    <cellStyle name="40% - Accent5 2 4" xfId="273"/>
     <cellStyle name="40% - Accent5 3" xfId="78"/>
     <cellStyle name="40% - Accent5 3 2" xfId="193"/>
+    <cellStyle name="40% - Accent5 3 2 2" xfId="395"/>
+    <cellStyle name="40% - Accent5 3 3" xfId="287"/>
     <cellStyle name="40% - Accent5 4" xfId="93"/>
     <cellStyle name="40% - Accent5 4 2" xfId="206"/>
+    <cellStyle name="40% - Accent5 4 2 2" xfId="408"/>
+    <cellStyle name="40% - Accent5 4 3" xfId="300"/>
     <cellStyle name="40% - Accent5 5" xfId="106"/>
     <cellStyle name="40% - Accent5 5 2" xfId="219"/>
+    <cellStyle name="40% - Accent5 5 2 2" xfId="421"/>
+    <cellStyle name="40% - Accent5 5 3" xfId="313"/>
     <cellStyle name="40% - Accent5 6" xfId="136"/>
     <cellStyle name="40% - Accent5 6 2" xfId="246"/>
+    <cellStyle name="40% - Accent5 6 2 2" xfId="448"/>
+    <cellStyle name="40% - Accent5 6 3" xfId="341"/>
     <cellStyle name="40% - Accent5 7" xfId="164"/>
+    <cellStyle name="40% - Accent5 7 2" xfId="368"/>
     <cellStyle name="40% - Accent5 8" xfId="150"/>
+    <cellStyle name="40% - Accent5 8 2" xfId="355"/>
+    <cellStyle name="40% - Accent5 9" xfId="260"/>
     <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - Accent6 2" xfId="59"/>
     <cellStyle name="40% - Accent6 2 2" xfId="121"/>
     <cellStyle name="40% - Accent6 2 2 2" xfId="234"/>
+    <cellStyle name="40% - Accent6 2 2 2 2" xfId="436"/>
+    <cellStyle name="40% - Accent6 2 2 3" xfId="328"/>
     <cellStyle name="40% - Accent6 2 3" xfId="180"/>
+    <cellStyle name="40% - Accent6 2 3 2" xfId="383"/>
+    <cellStyle name="40% - Accent6 2 4" xfId="275"/>
     <cellStyle name="40% - Accent6 3" xfId="80"/>
     <cellStyle name="40% - Accent6 3 2" xfId="195"/>
+    <cellStyle name="40% - Accent6 3 2 2" xfId="397"/>
+    <cellStyle name="40% - Accent6 3 3" xfId="289"/>
     <cellStyle name="40% - Accent6 4" xfId="95"/>
     <cellStyle name="40% - Accent6 4 2" xfId="208"/>
+    <cellStyle name="40% - Accent6 4 2 2" xfId="410"/>
+    <cellStyle name="40% - Accent6 4 3" xfId="302"/>
     <cellStyle name="40% - Accent6 5" xfId="108"/>
     <cellStyle name="40% - Accent6 5 2" xfId="221"/>
+    <cellStyle name="40% - Accent6 5 2 2" xfId="423"/>
+    <cellStyle name="40% - Accent6 5 3" xfId="315"/>
     <cellStyle name="40% - Accent6 6" xfId="138"/>
     <cellStyle name="40% - Accent6 6 2" xfId="248"/>
+    <cellStyle name="40% - Accent6 6 2 2" xfId="450"/>
+    <cellStyle name="40% - Accent6 6 3" xfId="343"/>
     <cellStyle name="40% - Accent6 7" xfId="166"/>
+    <cellStyle name="40% - Accent6 7 2" xfId="370"/>
     <cellStyle name="40% - Accent6 8" xfId="152"/>
+    <cellStyle name="40% - Accent6 8 2" xfId="357"/>
+    <cellStyle name="40% - Accent6 9" xfId="262"/>
     <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
@@ -4852,8 +5257,12 @@
     <cellStyle name="Normal 2" xfId="64"/>
     <cellStyle name="Normal 2 2" xfId="123"/>
     <cellStyle name="Normal 2 2 2" xfId="235"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="437"/>
+    <cellStyle name="Normal 2 2 3" xfId="329"/>
     <cellStyle name="Normal 2 3" xfId="181"/>
+    <cellStyle name="Normal 2 3 2" xfId="384"/>
     <cellStyle name="Normal 2 4" xfId="249"/>
+    <cellStyle name="Normal 2 5" xfId="276"/>
     <cellStyle name="Normal 3" xfId="60"/>
     <cellStyle name="Normal 3 2" xfId="82"/>
     <cellStyle name="Normal 4" xfId="67"/>
@@ -4861,17 +5270,32 @@
     <cellStyle name="Note 2" xfId="47"/>
     <cellStyle name="Note 2 2" xfId="109"/>
     <cellStyle name="Note 2 2 2" xfId="222"/>
+    <cellStyle name="Note 2 2 2 2" xfId="424"/>
+    <cellStyle name="Note 2 2 3" xfId="316"/>
     <cellStyle name="Note 2 3" xfId="168"/>
+    <cellStyle name="Note 2 3 2" xfId="371"/>
+    <cellStyle name="Note 2 4" xfId="263"/>
     <cellStyle name="Note 3" xfId="68"/>
     <cellStyle name="Note 3 2" xfId="183"/>
+    <cellStyle name="Note 3 2 2" xfId="385"/>
+    <cellStyle name="Note 3 3" xfId="277"/>
     <cellStyle name="Note 4" xfId="83"/>
     <cellStyle name="Note 4 2" xfId="196"/>
+    <cellStyle name="Note 4 2 2" xfId="398"/>
+    <cellStyle name="Note 4 3" xfId="290"/>
     <cellStyle name="Note 5" xfId="96"/>
     <cellStyle name="Note 5 2" xfId="209"/>
+    <cellStyle name="Note 5 2 2" xfId="411"/>
+    <cellStyle name="Note 5 3" xfId="303"/>
     <cellStyle name="Note 6" xfId="126"/>
     <cellStyle name="Note 6 2" xfId="236"/>
+    <cellStyle name="Note 6 2 2" xfId="438"/>
+    <cellStyle name="Note 6 3" xfId="331"/>
     <cellStyle name="Note 7" xfId="154"/>
+    <cellStyle name="Note 7 2" xfId="358"/>
     <cellStyle name="Note 8" xfId="140"/>
+    <cellStyle name="Note 8 2" xfId="345"/>
+    <cellStyle name="Note 9" xfId="250"/>
     <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Percent 2" xfId="45"/>
@@ -4879,53 +5303,19 @@
     <cellStyle name="Percent 2 2 2" xfId="124"/>
     <cellStyle name="Percent 2 3" xfId="61"/>
     <cellStyle name="Percent 2 4" xfId="139"/>
+    <cellStyle name="Percent 2 4 2" xfId="344"/>
     <cellStyle name="Percent 2 5" xfId="167"/>
     <cellStyle name="Percent 3" xfId="63"/>
     <cellStyle name="Percent 3 2" xfId="122"/>
     <cellStyle name="Percent 4" xfId="46"/>
     <cellStyle name="Percent 5" xfId="125"/>
+    <cellStyle name="Percent 5 2" xfId="330"/>
     <cellStyle name="Percent 6" xfId="153"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="62">
     <dxf>
       <font>
         <i val="0"/>
@@ -5457,123 +5847,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -5610,6 +5883,24 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5933,20 +6224,20 @@
       <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="321" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="321"/>
+      <c r="A3" s="323" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="323"/>
     </row>
     <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="322" t="s">
+      <c r="A5" s="324" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="322"/>
+      <c r="B5" s="324"/>
     </row>
     <row r="6" spans="1:2" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
@@ -6105,10 +6396,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="323" t="s">
+      <c r="A36" s="325" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="323"/>
+      <c r="B36" s="325"/>
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
@@ -6125,29 +6416,29 @@
       <c r="B39" s="17"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="324"/>
+      <c r="A40" s="326"/>
       <c r="B40" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="324"/>
+      <c r="A41" s="326"/>
       <c r="B41" s="19"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="324"/>
+      <c r="A42" s="326"/>
       <c r="B42" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="324"/>
+      <c r="A43" s="326"/>
       <c r="B43" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="324"/>
+      <c r="A44" s="326"/>
       <c r="B44" s="18" t="s">
         <v>28</v>
       </c>
@@ -6243,20 +6534,20 @@
       <c r="B3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="325" t="s">
+      <c r="C3" s="342" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="326"/>
+      <c r="D3" s="343"/>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="327" t="s">
+      <c r="A4" s="344" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="328"/>
-      <c r="C4" s="329" t="s">
+      <c r="B4" s="345"/>
+      <c r="C4" s="346" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="330"/>
+      <c r="D4" s="347"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
     </row>
@@ -6265,10 +6556,10 @@
       <c r="B5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="331" t="s">
+      <c r="C5" s="348" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="332"/>
+      <c r="D5" s="349"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -6278,14 +6569,14 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="333" t="s">
+      <c r="A6" s="350" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="334"/>
-      <c r="C6" s="335" t="s">
+      <c r="B6" s="351"/>
+      <c r="C6" s="329" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="336"/>
+      <c r="D6" s="330"/>
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -6293,176 +6584,176 @@
         <v>42</v>
       </c>
       <c r="B7" s="31"/>
-      <c r="C7" s="335" t="s">
+      <c r="C7" s="329" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="336"/>
+      <c r="D7" s="330"/>
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="337"/>
+      <c r="A8" s="335"/>
       <c r="B8" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="340" t="s">
+      <c r="C8" s="338" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="341"/>
+      <c r="D8" s="339"/>
       <c r="E8" s="33"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="338"/>
+      <c r="A9" s="336"/>
       <c r="B9" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="342" t="s">
+      <c r="C9" s="331" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="343"/>
+      <c r="D9" s="332"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="338"/>
+      <c r="A10" s="336"/>
       <c r="B10" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="342" t="s">
+      <c r="C10" s="331" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="343"/>
+      <c r="D10" s="332"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="338"/>
+      <c r="A11" s="336"/>
       <c r="B11" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="342" t="s">
+      <c r="C11" s="331" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="343"/>
+      <c r="D11" s="332"/>
     </row>
     <row r="12" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="338"/>
+      <c r="A12" s="336"/>
       <c r="B12" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="344" t="s">
+      <c r="C12" s="327" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="345"/>
+      <c r="D12" s="328"/>
     </row>
     <row r="13" spans="1:11" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="338"/>
+      <c r="A13" s="336"/>
       <c r="B13" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="342" t="s">
+      <c r="C13" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="343"/>
+      <c r="D13" s="332"/>
       <c r="E13" s="1"/>
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:11" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="338"/>
+      <c r="A14" s="336"/>
       <c r="B14" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="346"/>
-      <c r="D14" s="347"/>
+      <c r="C14" s="340"/>
+      <c r="D14" s="341"/>
       <c r="E14" s="1"/>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="338"/>
+      <c r="A15" s="336"/>
       <c r="B15" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="342" t="s">
+      <c r="C15" s="331" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="343"/>
+      <c r="D15" s="332"/>
       <c r="E15" s="1"/>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:11" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="338"/>
+      <c r="A16" s="336"/>
       <c r="B16" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="342" t="s">
+      <c r="C16" s="331" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="343"/>
+      <c r="D16" s="332"/>
       <c r="E16" s="1"/>
       <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="338"/>
+      <c r="A17" s="336"/>
       <c r="B17" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="342" t="s">
+      <c r="C17" s="331" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="343"/>
+      <c r="D17" s="332"/>
       <c r="E17" s="1"/>
       <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="338"/>
+      <c r="A18" s="336"/>
       <c r="B18" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="342" t="s">
+      <c r="C18" s="331" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="343"/>
+      <c r="D18" s="332"/>
       <c r="E18" s="1"/>
       <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="338"/>
+      <c r="A19" s="336"/>
       <c r="B19" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="340" t="s">
+      <c r="C19" s="338" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="341"/>
+      <c r="D19" s="339"/>
       <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="338"/>
+      <c r="A20" s="336"/>
       <c r="B20" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="342" t="s">
+      <c r="C20" s="331" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="343"/>
+      <c r="D20" s="332"/>
     </row>
     <row r="21" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="338"/>
+      <c r="A21" s="336"/>
       <c r="B21" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="344" t="s">
+      <c r="C21" s="327" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="345"/>
+      <c r="D21" s="328"/>
     </row>
     <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="338"/>
+      <c r="A22" s="336"/>
       <c r="B22" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="342" t="s">
+      <c r="C22" s="331" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="343"/>
+      <c r="D22" s="332"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="338"/>
+      <c r="A23" s="336"/>
       <c r="B23" s="34" t="s">
         <v>73</v>
       </c>
@@ -6472,119 +6763,119 @@
       <c r="D23" s="39"/>
     </row>
     <row r="24" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="338"/>
+      <c r="A24" s="336"/>
       <c r="B24" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="348" t="s">
+      <c r="C24" s="333" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="349"/>
+      <c r="D24" s="334"/>
     </row>
     <row r="25" spans="1:6" s="37" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="338"/>
+      <c r="A25" s="336"/>
       <c r="B25" s="34"/>
-      <c r="C25" s="342" t="s">
+      <c r="C25" s="331" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="343"/>
+      <c r="D25" s="332"/>
       <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="338"/>
+      <c r="A26" s="336"/>
       <c r="B26" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="348" t="s">
+      <c r="C26" s="333" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="349"/>
+      <c r="D26" s="334"/>
     </row>
     <row r="27" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="338"/>
+      <c r="A27" s="336"/>
       <c r="B27" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="344" t="s">
+      <c r="C27" s="327" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="345"/>
+      <c r="D27" s="328"/>
     </row>
     <row r="28" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="338"/>
+      <c r="A28" s="336"/>
       <c r="B28" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="342" t="s">
+      <c r="C28" s="331" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="343"/>
+      <c r="D28" s="332"/>
     </row>
     <row r="29" spans="1:6" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="339"/>
+      <c r="A29" s="337"/>
       <c r="B29" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="342" t="s">
+      <c r="C29" s="331" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="343"/>
+      <c r="D29" s="332"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="342" t="s">
+      <c r="C30" s="331" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="343"/>
+      <c r="D30" s="332"/>
     </row>
     <row r="31" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="342" t="s">
+      <c r="C31" s="331" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="343"/>
+      <c r="D31" s="332"/>
     </row>
     <row r="32" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="342" t="s">
+      <c r="C32" s="331" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="343"/>
+      <c r="D32" s="332"/>
     </row>
     <row r="33" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="342" t="s">
+      <c r="C33" s="331" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="343"/>
+      <c r="D33" s="332"/>
     </row>
     <row r="34" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="342" t="s">
+      <c r="C34" s="331" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="343"/>
+      <c r="D34" s="332"/>
     </row>
     <row r="35" spans="1:6" s="6" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="335" t="s">
+      <c r="C35" s="329" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="336"/>
+      <c r="D35" s="330"/>
       <c r="E35" s="1"/>
       <c r="F35" s="25"/>
     </row>
@@ -6770,19 +7061,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A8:A29"/>
     <mergeCell ref="C8:D8"/>
@@ -6799,12 +7083,19 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6825,9 +7116,9 @@
   <dimension ref="A1:AF184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B33" sqref="B33"/>
-      <selection pane="bottomLeft" activeCell="B171" sqref="B171"/>
+      <selection pane="bottomLeft" activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6849,10 +7140,10 @@
       <c r="B1" s="213" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="350" t="s">
+      <c r="C1" s="352" t="s">
         <v>399</v>
       </c>
-      <c r="D1" s="350"/>
+      <c r="D1" s="352"/>
       <c r="E1" s="210" t="s">
         <v>397</v>
       </c>
@@ -7253,9 +7544,11 @@
         <v>1</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="54"/>
+        <v>67</v>
+      </c>
+      <c r="F12" s="314" t="s">
+        <v>518</v>
+      </c>
       <c r="G12" s="55" t="s">
         <v>110</v>
       </c>
@@ -7264,7 +7557,7 @@
       </c>
       <c r="AA12" s="319">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="319">
         <f t="shared" si="1"/>
@@ -7272,7 +7565,7 @@
       </c>
       <c r="AC12" s="319">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="319">
         <f t="shared" si="3"/>
@@ -7494,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="209" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" s="209" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="65"/>
       <c r="B18" s="245" t="s">
         <v>139</v>
@@ -7578,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="65" t="s">
         <v>120</v>
       </c>
@@ -7594,7 +7887,9 @@
       <c r="E20" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="54"/>
+      <c r="F20" s="309" t="s">
+        <v>519</v>
+      </c>
       <c r="G20" s="55" t="s">
         <v>110</v>
       </c>
@@ -7632,7 +7927,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F21" s="63" t="s">
         <v>114</v>
@@ -7645,7 +7940,7 @@
       </c>
       <c r="AA21" s="319">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="319">
         <f t="shared" si="1"/>
@@ -7653,7 +7948,7 @@
       </c>
       <c r="AC21" s="319">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" s="319">
         <f t="shared" si="3"/>
@@ -9552,7 +9847,7 @@
         <v>4</v>
       </c>
       <c r="E67" s="62" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="F67" s="63" t="s">
         <v>114</v>
@@ -9573,7 +9868,7 @@
       </c>
       <c r="AC67" s="319">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67" s="319">
         <f t="shared" si="3"/>
@@ -9581,7 +9876,7 @@
       </c>
       <c r="AE67" s="319">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9702,7 +9997,7 @@
       <c r="A71" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="B71" s="351" t="s">
+      <c r="B71" s="353" t="s">
         <v>86</v>
       </c>
       <c r="C71" s="234" t="s">
@@ -9717,7 +10012,7 @@
       <c r="G71" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H71" s="352" t="s">
+      <c r="H71" s="354" t="s">
         <v>458</v>
       </c>
       <c r="AA71" s="319">
@@ -9745,7 +10040,7 @@
       <c r="A72" s="65" t="s">
         <v>457</v>
       </c>
-      <c r="B72" s="351"/>
+      <c r="B72" s="353"/>
       <c r="C72" s="234" t="s">
         <v>46</v>
       </c>
@@ -9758,7 +10053,7 @@
       <c r="G72" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H72" s="352"/>
+      <c r="H72" s="354"/>
       <c r="AA72" s="319">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9784,7 +10079,7 @@
       <c r="A73" s="65" t="s">
         <v>459</v>
       </c>
-      <c r="B73" s="351"/>
+      <c r="B73" s="353"/>
       <c r="C73" s="234" t="s">
         <v>50</v>
       </c>
@@ -9797,7 +10092,7 @@
       <c r="G73" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H73" s="352"/>
+      <c r="H73" s="354"/>
       <c r="AA73" s="319">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -9904,7 +10199,7 @@
       <c r="A76" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="B76" s="351" t="s">
+      <c r="B76" s="353" t="s">
         <v>86</v>
       </c>
       <c r="C76" s="234" t="s">
@@ -9919,7 +10214,7 @@
       <c r="G76" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H76" s="353" t="s">
+      <c r="H76" s="355" t="s">
         <v>458</v>
       </c>
       <c r="AA76" s="319">
@@ -9947,7 +10242,7 @@
       <c r="A77" s="65" t="s">
         <v>457</v>
       </c>
-      <c r="B77" s="351"/>
+      <c r="B77" s="353"/>
       <c r="C77" s="234" t="s">
         <v>46</v>
       </c>
@@ -9960,7 +10255,7 @@
       <c r="G77" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H77" s="353"/>
+      <c r="H77" s="355"/>
       <c r="AA77" s="319">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -9986,7 +10281,7 @@
       <c r="A78" s="65" t="s">
         <v>459</v>
       </c>
-      <c r="B78" s="351"/>
+      <c r="B78" s="353"/>
       <c r="C78" s="234" t="s">
         <v>50</v>
       </c>
@@ -9999,7 +10294,7 @@
       <c r="G78" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H78" s="353"/>
+      <c r="H78" s="355"/>
       <c r="AA78" s="319">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -10151,7 +10446,7 @@
         <v>4</v>
       </c>
       <c r="E82" s="244" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="F82" s="63" t="s">
         <v>114</v>
@@ -10172,7 +10467,7 @@
       </c>
       <c r="AC82" s="319">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD82" s="319">
         <f t="shared" si="8"/>
@@ -10180,7 +10475,7 @@
       </c>
       <c r="AE82" s="319">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:31" s="231" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11949,6 +12244,9 @@
         <v>3</v>
       </c>
       <c r="E126" s="53"/>
+      <c r="F126" t="s">
+        <v>517</v>
+      </c>
       <c r="G126" s="56"/>
       <c r="H126" s="296"/>
       <c r="AA126" s="319">
@@ -11986,7 +12284,7 @@
       <c r="E127" s="318" t="s">
         <v>103</v>
       </c>
-      <c r="F127" s="367" t="s">
+      <c r="F127" s="321" t="s">
         <v>516</v>
       </c>
       <c r="G127" s="304"/>
@@ -12028,9 +12326,7 @@
       <c r="E128" s="306" t="s">
         <v>103</v>
       </c>
-      <c r="F128" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F128" s="321"/>
       <c r="G128" s="309" t="s">
         <v>110</v>
       </c>
@@ -12072,9 +12368,7 @@
       <c r="E129" s="308" t="s">
         <v>103</v>
       </c>
-      <c r="F129" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F129" s="321"/>
       <c r="G129" s="309" t="s">
         <v>110</v>
       </c>
@@ -12114,9 +12408,7 @@
       <c r="E130" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F130" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F130" s="321"/>
       <c r="H130" s="66" t="s">
         <v>201</v>
       </c>
@@ -12155,9 +12447,7 @@
       <c r="E131" s="234" t="s">
         <v>103</v>
       </c>
-      <c r="F131" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F131" s="321"/>
       <c r="G131" s="239" t="s">
         <v>110</v>
       </c>
@@ -12199,9 +12489,7 @@
       <c r="E132" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F132" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F132" s="321"/>
       <c r="G132" s="73" t="s">
         <v>203</v>
       </c>
@@ -12245,9 +12533,7 @@
       <c r="E133" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F133" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F133" s="321"/>
       <c r="G133" s="55" t="s">
         <v>110</v>
       </c>
@@ -12289,9 +12575,7 @@
       <c r="E134" s="318" t="s">
         <v>103</v>
       </c>
-      <c r="F134" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F134" s="321"/>
       <c r="G134" s="291" t="s">
         <v>497</v>
       </c>
@@ -12330,9 +12614,7 @@
       <c r="E135" s="318" t="s">
         <v>103</v>
       </c>
-      <c r="F135" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F135" s="321"/>
       <c r="G135" s="73" t="s">
         <v>203</v>
       </c>
@@ -12374,9 +12656,7 @@
       <c r="E136" s="318" t="s">
         <v>103</v>
       </c>
-      <c r="F136" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F136" s="321"/>
       <c r="G136" s="55" t="s">
         <v>203</v>
       </c>
@@ -12418,9 +12698,7 @@
       <c r="E137" s="318" t="s">
         <v>103</v>
       </c>
-      <c r="F137" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F137" s="321"/>
       <c r="H137" s="299" t="s">
         <v>487</v>
       </c>
@@ -12459,9 +12737,7 @@
       <c r="E138" s="318" t="s">
         <v>103</v>
       </c>
-      <c r="F138" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F138" s="321"/>
       <c r="G138" s="239" t="s">
         <v>110</v>
       </c>
@@ -12505,9 +12781,7 @@
       <c r="E139" s="318" t="s">
         <v>103</v>
       </c>
-      <c r="F139" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F139" s="321"/>
       <c r="G139" s="55" t="s">
         <v>110</v>
       </c>
@@ -12549,9 +12823,7 @@
       <c r="E140" s="318" t="s">
         <v>103</v>
       </c>
-      <c r="F140" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F140" s="321"/>
       <c r="H140" s="66" t="s">
         <v>199</v>
       </c>
@@ -12592,9 +12864,7 @@
       <c r="E141" s="318" t="s">
         <v>103</v>
       </c>
-      <c r="F141" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F141" s="321"/>
       <c r="G141" s="56" t="s">
         <v>94</v>
       </c>
@@ -12635,9 +12905,7 @@
       <c r="E142" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F142" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F142" s="321"/>
       <c r="G142" s="54" t="s">
         <v>84</v>
       </c>
@@ -12678,7 +12946,7 @@
       <c r="E143" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F143" s="367" t="s">
+      <c r="F143" s="321" t="s">
         <v>516</v>
       </c>
       <c r="H143" s="303"/>
@@ -12716,9 +12984,7 @@
       <c r="E144" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F144" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F144" s="321"/>
       <c r="H144" s="298" t="s">
         <v>488</v>
       </c>
@@ -12757,9 +13023,7 @@
       <c r="E145" s="234" t="s">
         <v>103</v>
       </c>
-      <c r="F145" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F145" s="321"/>
       <c r="G145" s="239" t="s">
         <v>110</v>
       </c>
@@ -12800,9 +13064,7 @@
       <c r="E146" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F146" s="367" t="s">
-        <v>516</v>
-      </c>
+      <c r="F146" s="321"/>
       <c r="G146" s="73" t="s">
         <v>88</v>
       </c>
@@ -12841,17 +13103,15 @@
         <v>1</v>
       </c>
       <c r="E147" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F147" s="368" t="s">
-        <v>517</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F147" s="322"/>
       <c r="H147" s="298" t="s">
         <v>512</v>
       </c>
       <c r="AA147" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB147" s="319">
         <f t="shared" si="11"/>
@@ -12867,7 +13127,7 @@
       </c>
       <c r="AE147" s="319">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12881,7 +13141,10 @@
         <v>1</v>
       </c>
       <c r="E148" s="318" t="s">
-        <v>103</v>
+        <v>67</v>
+      </c>
+      <c r="F148" s="369" t="s">
+        <v>520</v>
       </c>
       <c r="G148" s="235" t="s">
         <v>88</v>
@@ -12891,7 +13154,7 @@
       </c>
       <c r="AA148" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB148" s="319">
         <f t="shared" si="11"/>
@@ -12907,7 +13170,7 @@
       </c>
       <c r="AE148" s="319">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:31" ht="102" customHeight="1" x14ac:dyDescent="0.2">
@@ -12921,7 +13184,10 @@
         <v>1</v>
       </c>
       <c r="E149" s="318" t="s">
-        <v>103</v>
+        <v>67</v>
+      </c>
+      <c r="F149" s="370" t="s">
+        <v>520</v>
       </c>
       <c r="G149" s="235" t="s">
         <v>88</v>
@@ -12931,7 +13197,7 @@
       </c>
       <c r="AA149" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB149" s="319">
         <f t="shared" si="11"/>
@@ -12947,7 +13213,7 @@
       </c>
       <c r="AE149" s="319">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:31" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12961,7 +13227,10 @@
         <v>1</v>
       </c>
       <c r="E150" s="318" t="s">
-        <v>103</v>
+        <v>67</v>
+      </c>
+      <c r="F150" s="371" t="s">
+        <v>520</v>
       </c>
       <c r="G150" s="235" t="s">
         <v>88</v>
@@ -12971,7 +13240,7 @@
       </c>
       <c r="AA150" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB150" s="319">
         <f t="shared" si="11"/>
@@ -12987,14 +13256,14 @@
       </c>
       <c r="AE150" s="319">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:31" s="231" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="B151" s="351" t="s">
+      <c r="B151" s="353" t="s">
         <v>86</v>
       </c>
       <c r="C151" s="234" t="s">
@@ -13004,17 +13273,17 @@
         <v>3</v>
       </c>
       <c r="E151" s="318" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="G151" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H151" s="352" t="s">
+      <c r="H151" s="354" t="s">
         <v>458</v>
       </c>
       <c r="AA151" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB151" s="319">
         <f t="shared" si="11"/>
@@ -13030,14 +13299,14 @@
       </c>
       <c r="AE151" s="319">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:31" s="231" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="65" t="s">
         <v>457</v>
       </c>
-      <c r="B152" s="351"/>
+      <c r="B152" s="353"/>
       <c r="C152" s="234" t="s">
         <v>46</v>
       </c>
@@ -13045,15 +13314,15 @@
         <v>3</v>
       </c>
       <c r="E152" s="318" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="G152" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H152" s="352"/>
+      <c r="H152" s="354"/>
       <c r="AA152" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB152" s="319">
         <f t="shared" si="11"/>
@@ -13069,14 +13338,14 @@
       </c>
       <c r="AE152" s="319">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:31" s="231" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="65" t="s">
         <v>459</v>
       </c>
-      <c r="B153" s="351"/>
+      <c r="B153" s="353"/>
       <c r="C153" s="234" t="s">
         <v>50</v>
       </c>
@@ -13084,12 +13353,12 @@
         <v>4</v>
       </c>
       <c r="E153" s="318" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="G153" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H153" s="352"/>
+      <c r="H153" s="354"/>
       <c r="AA153" s="319">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -13100,7 +13369,7 @@
       </c>
       <c r="AC153" s="319">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD153" s="319">
         <f t="shared" si="13"/>
@@ -13108,7 +13377,7 @@
       </c>
       <c r="AE153" s="319">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:31" s="231" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -13164,7 +13433,7 @@
         <v>1</v>
       </c>
       <c r="E155" s="318" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="G155" s="235"/>
       <c r="H155" s="299" t="s">
@@ -13172,7 +13441,7 @@
       </c>
       <c r="AA155" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB155" s="319">
         <f t="shared" si="11"/>
@@ -13188,7 +13457,7 @@
       </c>
       <c r="AE155" s="319">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:31" s="231" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -13203,7 +13472,7 @@
         <v>1</v>
       </c>
       <c r="E156" s="318" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="G156" s="235" t="s">
         <v>84</v>
@@ -13213,7 +13482,7 @@
       </c>
       <c r="AA156" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB156" s="319">
         <f t="shared" si="11"/>
@@ -13229,7 +13498,7 @@
       </c>
       <c r="AE156" s="319">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:31" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -13403,7 +13672,7 @@
         <v>1</v>
       </c>
       <c r="E161" s="318" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="G161" s="235"/>
       <c r="H161" s="66" t="s">
@@ -13411,7 +13680,7 @@
       </c>
       <c r="AA161" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB161" s="319">
         <f t="shared" si="11"/>
@@ -13427,7 +13696,7 @@
       </c>
       <c r="AE161" s="319">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:32" s="231" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
@@ -13444,7 +13713,7 @@
         <v>3</v>
       </c>
       <c r="E162" s="318" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="G162" s="243" t="s">
         <v>94</v>
@@ -13454,7 +13723,7 @@
       </c>
       <c r="AA162" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB162" s="319">
         <f t="shared" si="11"/>
@@ -13470,7 +13739,7 @@
       </c>
       <c r="AE162" s="319">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13484,7 +13753,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="318" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="G163" s="235"/>
       <c r="H163" s="79" t="s">
@@ -13492,7 +13761,7 @@
       </c>
       <c r="AA163" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB163" s="319">
         <f t="shared" si="11"/>
@@ -13508,7 +13777,7 @@
       </c>
       <c r="AE163" s="319">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:32" s="231" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -13523,7 +13792,7 @@
         <v>3</v>
       </c>
       <c r="E164" s="318" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="F164" s="239"/>
       <c r="G164" s="235" t="s">
@@ -13534,7 +13803,7 @@
       </c>
       <c r="AA164" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB164" s="319">
         <f t="shared" si="11"/>
@@ -13550,7 +13819,7 @@
       </c>
       <c r="AE164" s="319">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:32" ht="38.25" x14ac:dyDescent="0.2">
@@ -13565,7 +13834,7 @@
         <v>1</v>
       </c>
       <c r="E165" s="318" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="F165" s="226"/>
       <c r="G165" s="224" t="s">
@@ -13576,7 +13845,7 @@
       </c>
       <c r="AA165" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB165" s="319">
         <f t="shared" si="11"/>
@@ -13592,7 +13861,7 @@
       </c>
       <c r="AE165" s="319">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13606,7 +13875,7 @@
         <v>1</v>
       </c>
       <c r="E166" s="318" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="G166" s="235"/>
       <c r="H166" s="79" t="s">
@@ -13614,7 +13883,7 @@
       </c>
       <c r="AA166" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB166" s="319">
         <f t="shared" si="11"/>
@@ -13630,7 +13899,7 @@
       </c>
       <c r="AE166" s="319">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:32" s="231" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -13645,7 +13914,7 @@
         <v>3</v>
       </c>
       <c r="E167" s="318" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="F167" s="239"/>
       <c r="G167" s="239" t="s">
@@ -13656,7 +13925,7 @@
       </c>
       <c r="AA167" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB167" s="319">
         <f t="shared" si="11"/>
@@ -13672,7 +13941,7 @@
       </c>
       <c r="AE167" s="319">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13730,14 +13999,14 @@
         <v>1</v>
       </c>
       <c r="E169" s="53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H169" s="76" t="s">
         <v>225</v>
       </c>
       <c r="AA169" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB169" s="319">
         <f t="shared" si="11"/>
@@ -13749,7 +14018,7 @@
       </c>
       <c r="AD169" s="319">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE169" s="319">
         <f t="shared" si="14"/>
@@ -13767,7 +14036,7 @@
         <v>1</v>
       </c>
       <c r="E170" s="53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G170" s="73" t="s">
         <v>228</v>
@@ -13777,7 +14046,7 @@
       </c>
       <c r="AA170" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB170" s="319">
         <f t="shared" si="11"/>
@@ -13789,7 +14058,7 @@
       </c>
       <c r="AD170" s="319">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE170" s="319">
         <f t="shared" si="14"/>
@@ -13805,7 +14074,7 @@
         <v>4</v>
       </c>
       <c r="E171" s="62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F171" s="63" t="s">
         <v>114</v>
@@ -13826,11 +14095,11 @@
       </c>
       <c r="AC171" s="319">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD171" s="319">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE171" s="319">
         <f t="shared" si="14"/>
@@ -13846,7 +14115,7 @@
         <v>4</v>
       </c>
       <c r="E172" s="62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F172" s="63" t="s">
         <v>114</v>
@@ -13867,11 +14136,11 @@
       </c>
       <c r="AC172" s="319">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD172" s="319">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE172" s="319">
         <f t="shared" si="14"/>
@@ -13893,7 +14162,7 @@
         <v>1</v>
       </c>
       <c r="E173" s="53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G173" s="73" t="s">
         <v>228</v>
@@ -13911,11 +14180,11 @@
       </c>
       <c r="AC173" s="319">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD173" s="319">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE173" s="319">
         <f t="shared" si="14"/>
@@ -13933,7 +14202,7 @@
       <c r="H174" s="238"/>
       <c r="AA174" s="82">
         <f>SUM(AA4:AA173)</f>
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AB174" s="82">
         <f>SUM(AB4:AB173)</f>
@@ -13941,15 +14210,15 @@
       </c>
       <c r="AC174" s="82">
         <f>SUM(AC4:AC173)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AD174" s="82">
         <f>SUM(AD4:AD173)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE174" s="82">
         <f>SUM(AE4:AE173)</f>
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" spans="1:32" x14ac:dyDescent="0.2">
@@ -13968,11 +14237,11 @@
       <c r="D178" s="73"/>
       <c r="E178" s="84">
         <f>AA174/F184</f>
-        <v>0.64375000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="F178">
         <f>AA174</f>
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -13998,11 +14267,11 @@
       <c r="D180" s="73"/>
       <c r="E180" s="84">
         <f>AC174/F184</f>
-        <v>5.6250000000000001E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="F180">
         <f>AC174</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -14013,11 +14282,11 @@
       <c r="D181" s="73"/>
       <c r="E181" s="84">
         <f>AD174/F184</f>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="F181">
         <f>AD174</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -14028,11 +14297,11 @@
       <c r="D182" s="73"/>
       <c r="E182" s="84">
         <f>AE174/F184</f>
-        <v>0.26874999999999999</v>
+        <v>0.15625</v>
       </c>
       <c r="F182">
         <f>AE174</f>
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -14062,282 +14331,282 @@
     <mergeCell ref="H151:H153"/>
   </mergeCells>
   <conditionalFormatting sqref="E27:E28 E6 E31:E32 E8:E9 E12:E13 E36 E16 E19:E22 E25 E38 E40 E80 E86:E92 E95:E110 E118:E119 E123 E126:E130 E169:E173 E53:E59 E62 E64 E112:E115 E66:E68 E43:E49 E132:E144 E146:E167">
-    <cfRule type="expression" dxfId="3" priority="0">
+    <cfRule type="expression" dxfId="61" priority="0">
       <formula>AND(C6="REQ",E6="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88 E92 E99 E49 E38 E40 E43 E106:E110 E118:E119 E123 E130 E169:E173 E112:E115 E132:E144 E146:E167">
-    <cfRule type="cellIs" dxfId="2" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="82" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E178:E179">
-    <cfRule type="cellIs" dxfId="76" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="83" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179:E181">
-    <cfRule type="cellIs" dxfId="75" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="84" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E182 E179">
-    <cfRule type="cellIs" dxfId="74" priority="85" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="85" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="73" priority="63">
+    <cfRule type="expression" dxfId="56" priority="63">
       <formula>AND(C23="REQ",E23="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="72" priority="80">
+    <cfRule type="expression" dxfId="55" priority="80">
       <formula>AND(C30="REQ",E30="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="71" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="77" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="70" priority="58">
+    <cfRule type="expression" dxfId="53" priority="58">
       <formula>AND(C39="REQ",E39="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="69" priority="76">
+    <cfRule type="expression" dxfId="52" priority="76">
       <formula>AND(C7="REQ",E7="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="68" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="75" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="67" priority="74">
+    <cfRule type="expression" dxfId="50" priority="74">
       <formula>AND(C26="REQ",E26="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="66" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="73" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="65" priority="72">
+    <cfRule type="expression" dxfId="48" priority="72">
       <formula>AND(C33="REQ",E33="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="64" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="71" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="63" priority="70">
+    <cfRule type="expression" dxfId="46" priority="70">
       <formula>AND(C10="REQ",E10="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="62" priority="57">
+    <cfRule type="expression" dxfId="45" priority="57">
       <formula>AND(C41="REQ",E41="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="61" priority="69">
+    <cfRule type="expression" dxfId="44" priority="69">
       <formula>AND(C35="REQ",E35="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="60" priority="68">
+    <cfRule type="expression" dxfId="43" priority="68">
       <formula>AND(C11="REQ",E11="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="59" priority="56">
+    <cfRule type="expression" dxfId="42" priority="56">
       <formula>AND(C42="REQ",E42="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="58" priority="66">
+    <cfRule type="expression" dxfId="41" priority="66">
       <formula>AND(C17="REQ",E17="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="57" priority="65">
+    <cfRule type="expression" dxfId="40" priority="65">
       <formula>AND(C18="REQ",E18="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="64" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="55" priority="62">
+    <cfRule type="expression" dxfId="38" priority="62">
       <formula>AND(C24="REQ",E24="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="54" priority="61">
+    <cfRule type="expression" dxfId="37" priority="61">
       <formula>AND(C29="REQ",E29="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="53" priority="60">
+    <cfRule type="expression" dxfId="36" priority="60">
       <formula>AND(C34="REQ",E34="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="52" priority="59">
+    <cfRule type="expression" dxfId="35" priority="59">
       <formula>AND(C37="REQ",E37="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:E52">
-    <cfRule type="expression" dxfId="51" priority="55">
+    <cfRule type="expression" dxfId="34" priority="55">
       <formula>AND(C50="REQ",E50="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:E70 E79 E72:E74">
-    <cfRule type="expression" dxfId="50" priority="54">
+    <cfRule type="expression" dxfId="33" priority="54">
       <formula>AND(C69="REQ",E69="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81 E83:E85">
-    <cfRule type="expression" dxfId="49" priority="51">
+    <cfRule type="expression" dxfId="32" priority="51">
       <formula>AND(C81="REQ",E81="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="expression" dxfId="48" priority="50">
+    <cfRule type="expression" dxfId="31" priority="50">
       <formula>AND(C82="REQ",E82="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="49" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="expression" dxfId="46" priority="46">
+    <cfRule type="expression" dxfId="29" priority="46">
       <formula>AND(C93="REQ",E93="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116:E117">
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="28" priority="45">
       <formula>AND(C116="REQ",E116="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116:E117">
-    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="44" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120:E122">
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="26" priority="43">
       <formula>AND(C120="REQ",E120="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120:E122">
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="42" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="24" priority="41">
       <formula>AND(C125="REQ",E125="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="40" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="expression" dxfId="39" priority="39">
+    <cfRule type="expression" dxfId="22" priority="39">
       <formula>AND(C124="REQ",E124="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="38" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131">
-    <cfRule type="expression" dxfId="37" priority="37">
+    <cfRule type="expression" dxfId="20" priority="37">
       <formula>AND(C131="REQ",E131="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145">
-    <cfRule type="expression" dxfId="35" priority="35">
+    <cfRule type="expression" dxfId="19" priority="35">
       <formula>AND(C145="REQ",E145="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75 E77:E78">
-    <cfRule type="expression" dxfId="27" priority="23">
+    <cfRule type="expression" dxfId="18" priority="23">
       <formula>AND(C75="REQ",E75="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="17" priority="24">
       <formula>AND(C71="REQ",E71="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>AND(C76="REQ",E76="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E174">
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>AND(C174="REQ",E174="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>AND(C65="REQ",E65="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>AND(C15="REQ",E15="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>AND(C14="REQ",E14="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>AND(C61="REQ",E61="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>AND(C63="REQ",E63="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>AND(C94="REQ",E94="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>AND(C111="REQ",E111="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(C60="REQ",E60="No")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15010,19 +15279,19 @@
       <c r="QL2" s="89"/>
     </row>
     <row r="3" spans="1:454" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="356" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="355"/>
-      <c r="C3" s="355"/>
-      <c r="D3" s="355"/>
-      <c r="E3" s="355"/>
-      <c r="F3" s="355"/>
-      <c r="G3" s="355"/>
-      <c r="H3" s="355"/>
-      <c r="I3" s="355"/>
-      <c r="J3" s="355"/>
-      <c r="K3" s="355"/>
+      <c r="B3" s="357"/>
+      <c r="C3" s="357"/>
+      <c r="D3" s="357"/>
+      <c r="E3" s="357"/>
+      <c r="F3" s="357"/>
+      <c r="G3" s="357"/>
+      <c r="H3" s="357"/>
+      <c r="I3" s="357"/>
+      <c r="J3" s="357"/>
+      <c r="K3" s="357"/>
     </row>
     <row r="4" spans="1:454" s="85" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="93" t="s">
@@ -16020,17 +16289,17 @@
     <mergeCell ref="A3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="B30:B36 B26:B27 B16:B24">
-    <cfRule type="cellIs" dxfId="9" priority="0" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="0" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B44">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16604,18 +16873,18 @@
       <c r="QK2" s="89"/>
     </row>
     <row r="3" spans="1:453" s="85" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="356" t="s">
         <v>299</v>
       </c>
-      <c r="B3" s="355"/>
-      <c r="C3" s="355"/>
-      <c r="D3" s="355"/>
-      <c r="E3" s="355"/>
-      <c r="F3" s="355"/>
-      <c r="G3" s="355"/>
-      <c r="H3" s="355"/>
-      <c r="I3" s="355"/>
-      <c r="J3" s="356"/>
+      <c r="B3" s="357"/>
+      <c r="C3" s="357"/>
+      <c r="D3" s="357"/>
+      <c r="E3" s="357"/>
+      <c r="F3" s="357"/>
+      <c r="G3" s="357"/>
+      <c r="H3" s="357"/>
+      <c r="I3" s="357"/>
+      <c r="J3" s="358"/>
     </row>
     <row r="4" spans="1:453" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="97"/>
@@ -17200,17 +17469,17 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B17 B7:B8">
-    <cfRule type="cellIs" dxfId="6" priority="0" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="0" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17749,47 +18018,47 @@
     </row>
     <row r="3" spans="1:30" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="150"/>
-      <c r="C3" s="359" t="s">
+      <c r="C3" s="361" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="360"/>
-      <c r="E3" s="360"/>
-      <c r="F3" s="361"/>
-      <c r="G3" s="359" t="s">
+      <c r="D3" s="362"/>
+      <c r="E3" s="362"/>
+      <c r="F3" s="363"/>
+      <c r="G3" s="361" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="360"/>
-      <c r="I3" s="360"/>
-      <c r="J3" s="360"/>
-      <c r="K3" s="360"/>
-      <c r="L3" s="360"/>
-      <c r="M3" s="362" t="s">
+      <c r="H3" s="362"/>
+      <c r="I3" s="362"/>
+      <c r="J3" s="362"/>
+      <c r="K3" s="362"/>
+      <c r="L3" s="362"/>
+      <c r="M3" s="364" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="363"/>
-      <c r="O3" s="357" t="s">
+      <c r="N3" s="365"/>
+      <c r="O3" s="359" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="364"/>
-      <c r="Q3" s="364"/>
-      <c r="R3" s="364"/>
-      <c r="S3" s="364"/>
-      <c r="T3" s="358"/>
-      <c r="U3" s="365" t="s">
+      <c r="P3" s="366"/>
+      <c r="Q3" s="366"/>
+      <c r="R3" s="366"/>
+      <c r="S3" s="366"/>
+      <c r="T3" s="360"/>
+      <c r="U3" s="367" t="s">
         <v>367</v>
       </c>
-      <c r="V3" s="366"/>
-      <c r="W3" s="357" t="s">
+      <c r="V3" s="368"/>
+      <c r="W3" s="359" t="s">
         <v>94</v>
       </c>
-      <c r="X3" s="364"/>
-      <c r="Y3" s="364"/>
-      <c r="Z3" s="364"/>
-      <c r="AA3" s="358"/>
-      <c r="AB3" s="357" t="s">
+      <c r="X3" s="366"/>
+      <c r="Y3" s="366"/>
+      <c r="Z3" s="366"/>
+      <c r="AA3" s="360"/>
+      <c r="AB3" s="359" t="s">
         <v>228</v>
       </c>
-      <c r="AC3" s="358"/>
+      <c r="AC3" s="360"/>
       <c r="AD3" s="85"/>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -18957,15 +19226,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -19079,6 +19339,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -19086,14 +19355,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60846BC6-3376-492B-A137-BE9B817BCED1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD7F02ED-4036-4861-BDC4-1969BAC60D5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19105,6 +19366,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60846BC6-3376-492B-A137-BE9B817BCED1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Project Management/eCL OY4/CCO OY4_eCoaching Log TailorPlan Worksheet.xlsx
+++ b/Project Management/eCL OY4/CCO OY4_eCoaching Log TailorPlan Worksheet.xlsx
@@ -4714,6 +4714,15 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="82" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4726,22 +4735,73 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4750,57 +4810,6 @@
     <xf numFmtId="49" fontId="28" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="43" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4851,15 +4860,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="41" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="82" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="451">
@@ -6224,20 +6224,20 @@
       <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="323" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="323"/>
+      <c r="A3" s="326" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="326"/>
     </row>
     <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="324" t="s">
+      <c r="A5" s="327" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="324"/>
+      <c r="B5" s="327"/>
     </row>
     <row r="6" spans="1:2" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
@@ -6396,10 +6396,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="325" t="s">
+      <c r="A36" s="328" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="325"/>
+      <c r="B36" s="328"/>
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
@@ -6416,29 +6416,29 @@
       <c r="B39" s="17"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="326"/>
+      <c r="A40" s="329"/>
       <c r="B40" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="326"/>
+      <c r="A41" s="329"/>
       <c r="B41" s="19"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="326"/>
+      <c r="A42" s="329"/>
       <c r="B42" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="326"/>
+      <c r="A43" s="329"/>
       <c r="B43" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="326"/>
+      <c r="A44" s="329"/>
       <c r="B44" s="18" t="s">
         <v>28</v>
       </c>
@@ -6534,20 +6534,20 @@
       <c r="B3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="342" t="s">
+      <c r="C3" s="330" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="343"/>
+      <c r="D3" s="331"/>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="344" t="s">
+      <c r="A4" s="332" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="345"/>
-      <c r="C4" s="346" t="s">
+      <c r="B4" s="333"/>
+      <c r="C4" s="334" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="347"/>
+      <c r="D4" s="335"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
     </row>
@@ -6556,10 +6556,10 @@
       <c r="B5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="348" t="s">
+      <c r="C5" s="336" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="349"/>
+      <c r="D5" s="337"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -6569,14 +6569,14 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="350" t="s">
+      <c r="A6" s="338" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="351"/>
-      <c r="C6" s="329" t="s">
+      <c r="B6" s="339"/>
+      <c r="C6" s="340" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="330"/>
+      <c r="D6" s="341"/>
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -6584,176 +6584,176 @@
         <v>42</v>
       </c>
       <c r="B7" s="31"/>
-      <c r="C7" s="329" t="s">
+      <c r="C7" s="340" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="330"/>
+      <c r="D7" s="341"/>
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="335"/>
+      <c r="A8" s="342"/>
       <c r="B8" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="338" t="s">
+      <c r="C8" s="345" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="339"/>
+      <c r="D8" s="346"/>
       <c r="E8" s="33"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="336"/>
+      <c r="A9" s="343"/>
       <c r="B9" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="331" t="s">
+      <c r="C9" s="347" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="332"/>
+      <c r="D9" s="348"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="336"/>
+      <c r="A10" s="343"/>
       <c r="B10" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="331" t="s">
+      <c r="C10" s="347" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="332"/>
+      <c r="D10" s="348"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="336"/>
+      <c r="A11" s="343"/>
       <c r="B11" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="331" t="s">
+      <c r="C11" s="347" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="332"/>
+      <c r="D11" s="348"/>
     </row>
     <row r="12" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="336"/>
+      <c r="A12" s="343"/>
       <c r="B12" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="327" t="s">
+      <c r="C12" s="349" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="328"/>
+      <c r="D12" s="350"/>
     </row>
     <row r="13" spans="1:11" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="336"/>
+      <c r="A13" s="343"/>
       <c r="B13" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="331" t="s">
+      <c r="C13" s="347" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="332"/>
+      <c r="D13" s="348"/>
       <c r="E13" s="1"/>
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:11" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="336"/>
+      <c r="A14" s="343"/>
       <c r="B14" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="340"/>
-      <c r="D14" s="341"/>
+      <c r="C14" s="351"/>
+      <c r="D14" s="352"/>
       <c r="E14" s="1"/>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="336"/>
+      <c r="A15" s="343"/>
       <c r="B15" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="331" t="s">
+      <c r="C15" s="347" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="332"/>
+      <c r="D15" s="348"/>
       <c r="E15" s="1"/>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:11" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="336"/>
+      <c r="A16" s="343"/>
       <c r="B16" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="331" t="s">
+      <c r="C16" s="347" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="332"/>
+      <c r="D16" s="348"/>
       <c r="E16" s="1"/>
       <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="336"/>
+      <c r="A17" s="343"/>
       <c r="B17" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="331" t="s">
+      <c r="C17" s="347" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="332"/>
+      <c r="D17" s="348"/>
       <c r="E17" s="1"/>
       <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="336"/>
+      <c r="A18" s="343"/>
       <c r="B18" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="331" t="s">
+      <c r="C18" s="347" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="332"/>
+      <c r="D18" s="348"/>
       <c r="E18" s="1"/>
       <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="336"/>
+      <c r="A19" s="343"/>
       <c r="B19" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="338" t="s">
+      <c r="C19" s="345" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="339"/>
+      <c r="D19" s="346"/>
       <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="336"/>
+      <c r="A20" s="343"/>
       <c r="B20" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="331" t="s">
+      <c r="C20" s="347" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="332"/>
+      <c r="D20" s="348"/>
     </row>
     <row r="21" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="336"/>
+      <c r="A21" s="343"/>
       <c r="B21" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="327" t="s">
+      <c r="C21" s="349" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="328"/>
+      <c r="D21" s="350"/>
     </row>
     <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="336"/>
+      <c r="A22" s="343"/>
       <c r="B22" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="331" t="s">
+      <c r="C22" s="347" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="332"/>
+      <c r="D22" s="348"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="336"/>
+      <c r="A23" s="343"/>
       <c r="B23" s="34" t="s">
         <v>73</v>
       </c>
@@ -6763,119 +6763,119 @@
       <c r="D23" s="39"/>
     </row>
     <row r="24" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="336"/>
+      <c r="A24" s="343"/>
       <c r="B24" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="333" t="s">
+      <c r="C24" s="353" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="334"/>
+      <c r="D24" s="354"/>
     </row>
     <row r="25" spans="1:6" s="37" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="336"/>
+      <c r="A25" s="343"/>
       <c r="B25" s="34"/>
-      <c r="C25" s="331" t="s">
+      <c r="C25" s="347" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="332"/>
+      <c r="D25" s="348"/>
       <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="336"/>
+      <c r="A26" s="343"/>
       <c r="B26" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="333" t="s">
+      <c r="C26" s="353" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="334"/>
+      <c r="D26" s="354"/>
     </row>
     <row r="27" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="336"/>
+      <c r="A27" s="343"/>
       <c r="B27" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="327" t="s">
+      <c r="C27" s="349" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="328"/>
+      <c r="D27" s="350"/>
     </row>
     <row r="28" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="336"/>
+      <c r="A28" s="343"/>
       <c r="B28" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="331" t="s">
+      <c r="C28" s="347" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="332"/>
+      <c r="D28" s="348"/>
     </row>
     <row r="29" spans="1:6" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="337"/>
+      <c r="A29" s="344"/>
       <c r="B29" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="331" t="s">
+      <c r="C29" s="347" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="332"/>
+      <c r="D29" s="348"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="331" t="s">
+      <c r="C30" s="347" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="332"/>
+      <c r="D30" s="348"/>
     </row>
     <row r="31" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="331" t="s">
+      <c r="C31" s="347" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="332"/>
+      <c r="D31" s="348"/>
     </row>
     <row r="32" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="331" t="s">
+      <c r="C32" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="332"/>
+      <c r="D32" s="348"/>
     </row>
     <row r="33" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="331" t="s">
+      <c r="C33" s="347" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="332"/>
+      <c r="D33" s="348"/>
     </row>
     <row r="34" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="331" t="s">
+      <c r="C34" s="347" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="332"/>
+      <c r="D34" s="348"/>
     </row>
     <row r="35" spans="1:6" s="6" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="329" t="s">
+      <c r="C35" s="340" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="330"/>
+      <c r="D35" s="341"/>
       <c r="E35" s="1"/>
       <c r="F35" s="25"/>
     </row>
@@ -7061,12 +7061,19 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A8:A29"/>
     <mergeCell ref="C8:D8"/>
@@ -7083,19 +7090,12 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7116,9 +7116,9 @@
   <dimension ref="A1:AF184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B33" sqref="B33"/>
-      <selection pane="bottomLeft" activeCell="E148" sqref="E148"/>
+      <selection pane="bottomLeft" activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7140,10 +7140,10 @@
       <c r="B1" s="213" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="352" t="s">
+      <c r="C1" s="355" t="s">
         <v>399</v>
       </c>
-      <c r="D1" s="352"/>
+      <c r="D1" s="355"/>
       <c r="E1" s="210" t="s">
         <v>397</v>
       </c>
@@ -9997,7 +9997,7 @@
       <c r="A71" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="B71" s="353" t="s">
+      <c r="B71" s="356" t="s">
         <v>86</v>
       </c>
       <c r="C71" s="234" t="s">
@@ -10012,7 +10012,7 @@
       <c r="G71" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H71" s="354" t="s">
+      <c r="H71" s="357" t="s">
         <v>458</v>
       </c>
       <c r="AA71" s="319">
@@ -10040,7 +10040,7 @@
       <c r="A72" s="65" t="s">
         <v>457</v>
       </c>
-      <c r="B72" s="353"/>
+      <c r="B72" s="356"/>
       <c r="C72" s="234" t="s">
         <v>46</v>
       </c>
@@ -10053,7 +10053,7 @@
       <c r="G72" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H72" s="354"/>
+      <c r="H72" s="357"/>
       <c r="AA72" s="319">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -10079,7 +10079,7 @@
       <c r="A73" s="65" t="s">
         <v>459</v>
       </c>
-      <c r="B73" s="353"/>
+      <c r="B73" s="356"/>
       <c r="C73" s="234" t="s">
         <v>50</v>
       </c>
@@ -10092,7 +10092,7 @@
       <c r="G73" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H73" s="354"/>
+      <c r="H73" s="357"/>
       <c r="AA73" s="319">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -10199,7 +10199,7 @@
       <c r="A76" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="B76" s="353" t="s">
+      <c r="B76" s="356" t="s">
         <v>86</v>
       </c>
       <c r="C76" s="234" t="s">
@@ -10214,7 +10214,7 @@
       <c r="G76" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H76" s="355" t="s">
+      <c r="H76" s="358" t="s">
         <v>458</v>
       </c>
       <c r="AA76" s="319">
@@ -10242,7 +10242,7 @@
       <c r="A77" s="65" t="s">
         <v>457</v>
       </c>
-      <c r="B77" s="353"/>
+      <c r="B77" s="356"/>
       <c r="C77" s="234" t="s">
         <v>46</v>
       </c>
@@ -10255,7 +10255,7 @@
       <c r="G77" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H77" s="355"/>
+      <c r="H77" s="358"/>
       <c r="AA77" s="319">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -10281,7 +10281,7 @@
       <c r="A78" s="65" t="s">
         <v>459</v>
       </c>
-      <c r="B78" s="353"/>
+      <c r="B78" s="356"/>
       <c r="C78" s="234" t="s">
         <v>50</v>
       </c>
@@ -10294,7 +10294,7 @@
       <c r="G78" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H78" s="355"/>
+      <c r="H78" s="358"/>
       <c r="AA78" s="319">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13141,9 +13141,9 @@
         <v>1</v>
       </c>
       <c r="E148" s="318" t="s">
-        <v>67</v>
-      </c>
-      <c r="F148" s="369" t="s">
+        <v>71</v>
+      </c>
+      <c r="F148" s="323" t="s">
         <v>520</v>
       </c>
       <c r="G148" s="235" t="s">
@@ -13154,7 +13154,7 @@
       </c>
       <c r="AA148" s="319">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB148" s="319">
         <f t="shared" si="11"/>
@@ -13162,7 +13162,7 @@
       </c>
       <c r="AC148" s="319">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD148" s="319">
         <f t="shared" si="13"/>
@@ -13184,9 +13184,9 @@
         <v>1</v>
       </c>
       <c r="E149" s="318" t="s">
-        <v>67</v>
-      </c>
-      <c r="F149" s="370" t="s">
+        <v>71</v>
+      </c>
+      <c r="F149" s="324" t="s">
         <v>520</v>
       </c>
       <c r="G149" s="235" t="s">
@@ -13197,7 +13197,7 @@
       </c>
       <c r="AA149" s="319">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB149" s="319">
         <f t="shared" si="11"/>
@@ -13205,7 +13205,7 @@
       </c>
       <c r="AC149" s="319">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD149" s="319">
         <f t="shared" si="13"/>
@@ -13227,9 +13227,9 @@
         <v>1</v>
       </c>
       <c r="E150" s="318" t="s">
-        <v>67</v>
-      </c>
-      <c r="F150" s="371" t="s">
+        <v>71</v>
+      </c>
+      <c r="F150" s="325" t="s">
         <v>520</v>
       </c>
       <c r="G150" s="235" t="s">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="AA150" s="319">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB150" s="319">
         <f t="shared" si="11"/>
@@ -13248,7 +13248,7 @@
       </c>
       <c r="AC150" s="319">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD150" s="319">
         <f t="shared" si="13"/>
@@ -13263,7 +13263,7 @@
       <c r="A151" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="B151" s="353" t="s">
+      <c r="B151" s="356" t="s">
         <v>86</v>
       </c>
       <c r="C151" s="234" t="s">
@@ -13278,7 +13278,7 @@
       <c r="G151" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H151" s="354" t="s">
+      <c r="H151" s="357" t="s">
         <v>458</v>
       </c>
       <c r="AA151" s="319">
@@ -13306,7 +13306,7 @@
       <c r="A152" s="65" t="s">
         <v>457</v>
       </c>
-      <c r="B152" s="353"/>
+      <c r="B152" s="356"/>
       <c r="C152" s="234" t="s">
         <v>46</v>
       </c>
@@ -13319,7 +13319,7 @@
       <c r="G152" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H152" s="354"/>
+      <c r="H152" s="357"/>
       <c r="AA152" s="319">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -13345,7 +13345,7 @@
       <c r="A153" s="65" t="s">
         <v>459</v>
       </c>
-      <c r="B153" s="353"/>
+      <c r="B153" s="356"/>
       <c r="C153" s="234" t="s">
         <v>50</v>
       </c>
@@ -13358,7 +13358,7 @@
       <c r="G153" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="H153" s="354"/>
+      <c r="H153" s="357"/>
       <c r="AA153" s="319">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -14162,7 +14162,7 @@
         <v>1</v>
       </c>
       <c r="E173" s="53" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G173" s="73" t="s">
         <v>228</v>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="AA173" s="319">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB173" s="319">
         <f t="shared" si="11"/>
@@ -14180,7 +14180,7 @@
       </c>
       <c r="AC173" s="319">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD173" s="319">
         <f t="shared" si="13"/>
@@ -14202,7 +14202,7 @@
       <c r="H174" s="238"/>
       <c r="AA174" s="82">
         <f>SUM(AA4:AA173)</f>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AB174" s="82">
         <f>SUM(AB4:AB173)</f>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="AC174" s="82">
         <f>SUM(AC4:AC173)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD174" s="82">
         <f>SUM(AD4:AD173)</f>
@@ -14237,11 +14237,11 @@
       <c r="D178" s="73"/>
       <c r="E178" s="84">
         <f>AA174/F184</f>
-        <v>0.75</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="F178">
         <f>AA174</f>
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -14267,11 +14267,11 @@
       <c r="D180" s="73"/>
       <c r="E180" s="84">
         <f>AC174/F184</f>
-        <v>9.375E-2</v>
+        <v>0.10625</v>
       </c>
       <c r="F180">
         <f>AC174</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -15279,19 +15279,19 @@
       <c r="QL2" s="89"/>
     </row>
     <row r="3" spans="1:454" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="359" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="357"/>
-      <c r="C3" s="357"/>
-      <c r="D3" s="357"/>
-      <c r="E3" s="357"/>
-      <c r="F3" s="357"/>
-      <c r="G3" s="357"/>
-      <c r="H3" s="357"/>
-      <c r="I3" s="357"/>
-      <c r="J3" s="357"/>
-      <c r="K3" s="357"/>
+      <c r="B3" s="360"/>
+      <c r="C3" s="360"/>
+      <c r="D3" s="360"/>
+      <c r="E3" s="360"/>
+      <c r="F3" s="360"/>
+      <c r="G3" s="360"/>
+      <c r="H3" s="360"/>
+      <c r="I3" s="360"/>
+      <c r="J3" s="360"/>
+      <c r="K3" s="360"/>
     </row>
     <row r="4" spans="1:454" s="85" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="93" t="s">
@@ -16873,18 +16873,18 @@
       <c r="QK2" s="89"/>
     </row>
     <row r="3" spans="1:453" s="85" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="359" t="s">
         <v>299</v>
       </c>
-      <c r="B3" s="357"/>
-      <c r="C3" s="357"/>
-      <c r="D3" s="357"/>
-      <c r="E3" s="357"/>
-      <c r="F3" s="357"/>
-      <c r="G3" s="357"/>
-      <c r="H3" s="357"/>
-      <c r="I3" s="357"/>
-      <c r="J3" s="358"/>
+      <c r="B3" s="360"/>
+      <c r="C3" s="360"/>
+      <c r="D3" s="360"/>
+      <c r="E3" s="360"/>
+      <c r="F3" s="360"/>
+      <c r="G3" s="360"/>
+      <c r="H3" s="360"/>
+      <c r="I3" s="360"/>
+      <c r="J3" s="361"/>
     </row>
     <row r="4" spans="1:453" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="97"/>
@@ -18018,47 +18018,47 @@
     </row>
     <row r="3" spans="1:30" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="150"/>
-      <c r="C3" s="361" t="s">
+      <c r="C3" s="364" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="362"/>
-      <c r="E3" s="362"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="361" t="s">
+      <c r="D3" s="365"/>
+      <c r="E3" s="365"/>
+      <c r="F3" s="366"/>
+      <c r="G3" s="364" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="362"/>
-      <c r="I3" s="362"/>
-      <c r="J3" s="362"/>
-      <c r="K3" s="362"/>
-      <c r="L3" s="362"/>
-      <c r="M3" s="364" t="s">
+      <c r="H3" s="365"/>
+      <c r="I3" s="365"/>
+      <c r="J3" s="365"/>
+      <c r="K3" s="365"/>
+      <c r="L3" s="365"/>
+      <c r="M3" s="367" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="365"/>
-      <c r="O3" s="359" t="s">
+      <c r="N3" s="368"/>
+      <c r="O3" s="362" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="366"/>
-      <c r="Q3" s="366"/>
-      <c r="R3" s="366"/>
-      <c r="S3" s="366"/>
-      <c r="T3" s="360"/>
-      <c r="U3" s="367" t="s">
+      <c r="P3" s="369"/>
+      <c r="Q3" s="369"/>
+      <c r="R3" s="369"/>
+      <c r="S3" s="369"/>
+      <c r="T3" s="363"/>
+      <c r="U3" s="370" t="s">
         <v>367</v>
       </c>
-      <c r="V3" s="368"/>
-      <c r="W3" s="359" t="s">
+      <c r="V3" s="371"/>
+      <c r="W3" s="362" t="s">
         <v>94</v>
       </c>
-      <c r="X3" s="366"/>
-      <c r="Y3" s="366"/>
-      <c r="Z3" s="366"/>
-      <c r="AA3" s="360"/>
-      <c r="AB3" s="359" t="s">
+      <c r="X3" s="369"/>
+      <c r="Y3" s="369"/>
+      <c r="Z3" s="369"/>
+      <c r="AA3" s="363"/>
+      <c r="AB3" s="362" t="s">
         <v>228</v>
       </c>
-      <c r="AC3" s="360"/>
+      <c r="AC3" s="363"/>
       <c r="AD3" s="85"/>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -19226,6 +19226,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -19339,15 +19348,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -19355,6 +19355,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60846BC6-3376-492B-A137-BE9B817BCED1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD7F02ED-4036-4861-BDC4-1969BAC60D5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19366,14 +19374,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60846BC6-3376-492B-A137-BE9B817BCED1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Project Management/eCL OY4/CCO OY4_eCoaching Log TailorPlan Worksheet.xlsx
+++ b/Project Management/eCL OY4/CCO OY4_eCoaching Log TailorPlan Worksheet.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="521">
   <si>
     <t>Purpose of this worksheet</t>
   </si>
@@ -4735,6 +4735,51 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4763,51 +4808,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="43" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6534,20 +6534,20 @@
       <c r="B3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="330" t="s">
+      <c r="C3" s="345" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="331"/>
+      <c r="D3" s="346"/>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="332" t="s">
+      <c r="A4" s="347" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="333"/>
-      <c r="C4" s="334" t="s">
+      <c r="B4" s="348"/>
+      <c r="C4" s="349" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="335"/>
+      <c r="D4" s="350"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
     </row>
@@ -6556,10 +6556,10 @@
       <c r="B5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="336" t="s">
+      <c r="C5" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="337"/>
+      <c r="D5" s="352"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -6569,14 +6569,14 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="338" t="s">
+      <c r="A6" s="353" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="339"/>
-      <c r="C6" s="340" t="s">
+      <c r="B6" s="354"/>
+      <c r="C6" s="332" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="341"/>
+      <c r="D6" s="333"/>
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -6584,176 +6584,176 @@
         <v>42</v>
       </c>
       <c r="B7" s="31"/>
-      <c r="C7" s="340" t="s">
+      <c r="C7" s="332" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="341"/>
+      <c r="D7" s="333"/>
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="342"/>
+      <c r="A8" s="338"/>
       <c r="B8" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="345" t="s">
+      <c r="C8" s="341" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="346"/>
+      <c r="D8" s="342"/>
       <c r="E8" s="33"/>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="343"/>
+      <c r="A9" s="339"/>
       <c r="B9" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="347" t="s">
+      <c r="C9" s="334" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="348"/>
+      <c r="D9" s="335"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="343"/>
+      <c r="A10" s="339"/>
       <c r="B10" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="347" t="s">
+      <c r="C10" s="334" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="348"/>
+      <c r="D10" s="335"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="343"/>
+      <c r="A11" s="339"/>
       <c r="B11" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="347" t="s">
+      <c r="C11" s="334" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="348"/>
+      <c r="D11" s="335"/>
     </row>
     <row r="12" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="343"/>
+      <c r="A12" s="339"/>
       <c r="B12" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="349" t="s">
+      <c r="C12" s="330" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="350"/>
+      <c r="D12" s="331"/>
     </row>
     <row r="13" spans="1:11" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="343"/>
+      <c r="A13" s="339"/>
       <c r="B13" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="347" t="s">
+      <c r="C13" s="334" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="348"/>
+      <c r="D13" s="335"/>
       <c r="E13" s="1"/>
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:11" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="343"/>
+      <c r="A14" s="339"/>
       <c r="B14" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="351"/>
-      <c r="D14" s="352"/>
+      <c r="C14" s="343"/>
+      <c r="D14" s="344"/>
       <c r="E14" s="1"/>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="343"/>
+      <c r="A15" s="339"/>
       <c r="B15" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="347" t="s">
+      <c r="C15" s="334" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="348"/>
+      <c r="D15" s="335"/>
       <c r="E15" s="1"/>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:11" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="343"/>
+      <c r="A16" s="339"/>
       <c r="B16" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="347" t="s">
+      <c r="C16" s="334" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="348"/>
+      <c r="D16" s="335"/>
       <c r="E16" s="1"/>
       <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="343"/>
+      <c r="A17" s="339"/>
       <c r="B17" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="347" t="s">
+      <c r="C17" s="334" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="348"/>
+      <c r="D17" s="335"/>
       <c r="E17" s="1"/>
       <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="343"/>
+      <c r="A18" s="339"/>
       <c r="B18" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="347" t="s">
+      <c r="C18" s="334" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="348"/>
+      <c r="D18" s="335"/>
       <c r="E18" s="1"/>
       <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="343"/>
+      <c r="A19" s="339"/>
       <c r="B19" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="345" t="s">
+      <c r="C19" s="341" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="346"/>
+      <c r="D19" s="342"/>
       <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="343"/>
+      <c r="A20" s="339"/>
       <c r="B20" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="347" t="s">
+      <c r="C20" s="334" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="348"/>
+      <c r="D20" s="335"/>
     </row>
     <row r="21" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="343"/>
+      <c r="A21" s="339"/>
       <c r="B21" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="349" t="s">
+      <c r="C21" s="330" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="350"/>
+      <c r="D21" s="331"/>
     </row>
     <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="343"/>
+      <c r="A22" s="339"/>
       <c r="B22" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="347" t="s">
+      <c r="C22" s="334" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="348"/>
+      <c r="D22" s="335"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="343"/>
+      <c r="A23" s="339"/>
       <c r="B23" s="34" t="s">
         <v>73</v>
       </c>
@@ -6763,119 +6763,119 @@
       <c r="D23" s="39"/>
     </row>
     <row r="24" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="343"/>
+      <c r="A24" s="339"/>
       <c r="B24" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="353" t="s">
+      <c r="C24" s="336" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="354"/>
+      <c r="D24" s="337"/>
     </row>
     <row r="25" spans="1:6" s="37" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="343"/>
+      <c r="A25" s="339"/>
       <c r="B25" s="34"/>
-      <c r="C25" s="347" t="s">
+      <c r="C25" s="334" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="348"/>
+      <c r="D25" s="335"/>
       <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="343"/>
+      <c r="A26" s="339"/>
       <c r="B26" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="353" t="s">
+      <c r="C26" s="336" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="354"/>
+      <c r="D26" s="337"/>
     </row>
     <row r="27" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="343"/>
+      <c r="A27" s="339"/>
       <c r="B27" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="349" t="s">
+      <c r="C27" s="330" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="350"/>
+      <c r="D27" s="331"/>
     </row>
     <row r="28" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="343"/>
+      <c r="A28" s="339"/>
       <c r="B28" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="347" t="s">
+      <c r="C28" s="334" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="348"/>
+      <c r="D28" s="335"/>
     </row>
     <row r="29" spans="1:6" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="344"/>
+      <c r="A29" s="340"/>
       <c r="B29" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="347" t="s">
+      <c r="C29" s="334" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="348"/>
+      <c r="D29" s="335"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="347" t="s">
+      <c r="C30" s="334" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="348"/>
+      <c r="D30" s="335"/>
     </row>
     <row r="31" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="347" t="s">
+      <c r="C31" s="334" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="348"/>
+      <c r="D31" s="335"/>
     </row>
     <row r="32" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="347" t="s">
+      <c r="C32" s="334" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="348"/>
+      <c r="D32" s="335"/>
     </row>
     <row r="33" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="347" t="s">
+      <c r="C33" s="334" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="348"/>
+      <c r="D33" s="335"/>
     </row>
     <row r="34" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="347" t="s">
+      <c r="C34" s="334" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="348"/>
+      <c r="D34" s="335"/>
     </row>
     <row r="35" spans="1:6" s="6" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="340" t="s">
+      <c r="C35" s="332" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="341"/>
+      <c r="D35" s="333"/>
       <c r="E35" s="1"/>
       <c r="F35" s="25"/>
     </row>
@@ -7061,19 +7061,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A8:A29"/>
     <mergeCell ref="C8:D8"/>
@@ -7090,12 +7083,19 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7116,9 +7116,9 @@
   <dimension ref="A1:AF184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B33" sqref="B33"/>
-      <selection pane="bottomLeft" activeCell="D174" sqref="D174"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8012,9 +8012,11 @@
         <v>3</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="54"/>
+        <v>71</v>
+      </c>
+      <c r="F23" s="325" t="s">
+        <v>520</v>
+      </c>
       <c r="G23" s="55" t="s">
         <v>110</v>
       </c>
@@ -8023,7 +8025,7 @@
       </c>
       <c r="AA23" s="319">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="319">
         <f t="shared" si="1"/>
@@ -8031,7 +8033,7 @@
       </c>
       <c r="AC23" s="319">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" s="319">
         <f t="shared" si="3"/>
@@ -14202,7 +14204,7 @@
       <c r="H174" s="238"/>
       <c r="AA174" s="82">
         <f>SUM(AA4:AA173)</f>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB174" s="82">
         <f>SUM(AB4:AB173)</f>
@@ -14210,7 +14212,7 @@
       </c>
       <c r="AC174" s="82">
         <f>SUM(AC4:AC173)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD174" s="82">
         <f>SUM(AD4:AD173)</f>
@@ -14237,11 +14239,11 @@
       <c r="D178" s="73"/>
       <c r="E178" s="84">
         <f>AA174/F184</f>
-        <v>0.73750000000000004</v>
+        <v>0.73124999999999996</v>
       </c>
       <c r="F178">
         <f>AA174</f>
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -14267,11 +14269,11 @@
       <c r="D180" s="73"/>
       <c r="E180" s="84">
         <f>AC174/F184</f>
-        <v>0.10625</v>
+        <v>0.1125</v>
       </c>
       <c r="F180">
         <f>AC174</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -19226,15 +19228,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -19348,6 +19341,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -19355,14 +19357,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60846BC6-3376-492B-A137-BE9B817BCED1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD7F02ED-4036-4861-BDC4-1969BAC60D5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19374,6 +19368,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60846BC6-3376-492B-A137-BE9B817BCED1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
